--- a/Medium Collar/PCB Files/MC1.1 Rev1 BOM.xlsx
+++ b/Medium Collar/PCB Files/MC1.1 Rev1 BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adithyaa Raghavan\Documents\Work files\Ishaan - Conservation Data Collection\MediumCollar1\Production Files\2021-06-18 1.1 gerbers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Storage\Documents\GitHub\Trak-TFRC-System\Medium Collar\PCB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A203BBC6-7984-43AB-B183-2C0BF78142D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CE5B3-2BD1-4CA7-93E9-E758E8E734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C2673C-5323-4364-B63D-760C458B5F27}"/>
   </bookViews>
@@ -16,17 +16,24 @@
     <sheet name="Basic Version" sheetId="1" r:id="rId1"/>
     <sheet name="Embedded Batt Charging" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>Qty</t>
   </si>
@@ -296,6 +303,15 @@
   </si>
   <si>
     <t>DO NOT POPULATE- D2, R7</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>https://www.sunrom.com/p/470r-1-0805-pack-of-100</t>
+  </si>
+  <si>
+    <t>R8, R9</t>
   </si>
 </sst>
 </file>
@@ -348,11 +364,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE20947-94C1-451A-B066-1C8AEC2AF162}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,16 +702,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="1"/>
@@ -1432,7 +1448,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1480,7 +1496,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1524,7 +1540,7 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1547,7 +1563,60 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1574,7 +1643,7 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>89</v>
@@ -1613,16 +1682,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Medium Collar/PCB Files/MC1.1 Rev1 BOM.xlsx
+++ b/Medium Collar/PCB Files/MC1.1 Rev1 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Storage\Documents\GitHub\Trak-TFRC-System\Medium Collar\PCB Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CE5B3-2BD1-4CA7-93E9-E758E8E734D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F791F49-B19F-4B62-9D96-D82970E67045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C2673C-5323-4364-B63D-760C458B5F27}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64C2673C-5323-4364-B63D-760C458B5F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Version" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
   <si>
     <t>Qty</t>
   </si>
@@ -687,7 +687,7 @@
   <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2591,6 +2591,29 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
